--- a/H08932.xlsx
+++ b/H08932.xlsx
@@ -9,22 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="089" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Diff" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Diff" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Diff!$A$1:$B$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Diff!$A$1:$B$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="441">
   <si>
     <t>Tree.ID</t>
   </si>
@@ -1667,7 +1669,7 @@
   <dimension ref="A1:K172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="G1" activeCellId="2" sqref="D1:D1048576 F1:F1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7699,10 +7701,958 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>143</v>
+      </c>
+      <c r="D2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
+      <c r="D3">
+        <v>155</v>
+      </c>
+      <c r="E3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>148</v>
+      </c>
+      <c r="D5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>102</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>148</v>
+      </c>
+      <c r="D7">
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>118</v>
+      </c>
+      <c r="E8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>136</v>
+      </c>
+      <c r="E9">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>153</v>
+      </c>
+      <c r="D10">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <v>165</v>
+      </c>
+      <c r="E11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>164</v>
+      </c>
+      <c r="D12">
+        <v>146</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>155</v>
+      </c>
+      <c r="E13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>153</v>
+      </c>
+      <c r="D14">
+        <v>154</v>
+      </c>
+      <c r="E14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>153</v>
+      </c>
+      <c r="E15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>160</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>135</v>
+      </c>
+      <c r="E17">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>125</v>
+      </c>
+      <c r="E18">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>169</v>
+      </c>
+      <c r="D19">
+        <v>119</v>
+      </c>
+      <c r="E19">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>163</v>
+      </c>
+      <c r="D20">
+        <v>131</v>
+      </c>
+      <c r="E20">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>169</v>
+      </c>
+      <c r="D21">
+        <v>138</v>
+      </c>
+      <c r="E21">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>153</v>
+      </c>
+      <c r="D22">
+        <v>138</v>
+      </c>
+      <c r="E22">
+        <v>164</v>
+      </c>
+      <c r="F22">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>153</v>
+      </c>
+      <c r="D23">
+        <v>151</v>
+      </c>
+      <c r="E23">
+        <v>201</v>
+      </c>
+      <c r="F23">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>145</v>
+      </c>
+      <c r="D24">
+        <v>170</v>
+      </c>
+      <c r="E24">
+        <v>177</v>
+      </c>
+      <c r="F24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>163</v>
+      </c>
+      <c r="D25">
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>169</v>
+      </c>
+      <c r="F25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>149</v>
+      </c>
+      <c r="D26">
+        <v>105</v>
+      </c>
+      <c r="E26">
+        <v>160</v>
+      </c>
+      <c r="F26">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>157</v>
+      </c>
+      <c r="D27">
+        <v>168</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="F27">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>182</v>
+      </c>
+      <c r="F28">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>139</v>
+      </c>
+      <c r="D29">
+        <v>166</v>
+      </c>
+      <c r="E29">
+        <v>166</v>
+      </c>
+      <c r="F29">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>189</v>
+      </c>
+      <c r="E30">
+        <v>183</v>
+      </c>
+      <c r="F30">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31">
+        <v>168</v>
+      </c>
+      <c r="D31">
+        <v>183</v>
+      </c>
+      <c r="E31">
+        <v>167</v>
+      </c>
+      <c r="F31">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>178</v>
+      </c>
+      <c r="D32">
+        <v>189</v>
+      </c>
+      <c r="E32">
+        <v>198</v>
+      </c>
+      <c r="F32">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>156</v>
+      </c>
+      <c r="D33">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>193</v>
+      </c>
+      <c r="F33">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>185</v>
+      </c>
+      <c r="D34">
+        <v>212</v>
+      </c>
+      <c r="E34">
+        <v>198</v>
+      </c>
+      <c r="F34">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>164</v>
+      </c>
+      <c r="D35">
+        <v>152</v>
+      </c>
+      <c r="E35">
+        <v>197</v>
+      </c>
+      <c r="F35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>163</v>
+      </c>
+      <c r="D36">
+        <v>190</v>
+      </c>
+      <c r="E36">
+        <v>154</v>
+      </c>
+      <c r="F36">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>152</v>
+      </c>
+      <c r="D37">
+        <v>204</v>
+      </c>
+      <c r="E37">
+        <v>169</v>
+      </c>
+      <c r="F37">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>170</v>
+      </c>
+      <c r="D38">
+        <v>180</v>
+      </c>
+      <c r="E38">
+        <v>164</v>
+      </c>
+      <c r="F38">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>154</v>
+      </c>
+      <c r="D39">
+        <v>192</v>
+      </c>
+      <c r="E39">
+        <v>181</v>
+      </c>
+      <c r="F39">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>170</v>
+      </c>
+      <c r="D40">
+        <v>208</v>
+      </c>
+      <c r="F40">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>147</v>
+      </c>
+      <c r="D41">
+        <v>180</v>
+      </c>
+      <c r="F41">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>156</v>
+      </c>
+      <c r="D42">
+        <v>195</v>
+      </c>
+      <c r="E42">
+        <v>182</v>
+      </c>
+      <c r="F42">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>141</v>
+      </c>
+      <c r="D43">
+        <v>172</v>
+      </c>
+      <c r="E43">
+        <v>203</v>
+      </c>
+      <c r="F43">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>157</v>
+      </c>
+      <c r="D44">
+        <v>209</v>
+      </c>
+      <c r="E44">
+        <v>205</v>
+      </c>
+      <c r="F44">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>153</v>
+      </c>
+      <c r="D45">
+        <v>202</v>
+      </c>
+      <c r="E45">
+        <v>150</v>
+      </c>
+      <c r="F45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>125</v>
+      </c>
+      <c r="D46">
+        <v>167</v>
+      </c>
+      <c r="E46">
+        <v>182</v>
+      </c>
+      <c r="F46">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47">
+        <v>153</v>
+      </c>
+      <c r="D47">
+        <v>176</v>
+      </c>
+      <c r="E47">
+        <v>190</v>
+      </c>
+      <c r="F47">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>140</v>
+      </c>
+      <c r="D48">
+        <v>180</v>
+      </c>
+      <c r="E48">
+        <v>180</v>
+      </c>
+      <c r="F48">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <v>136</v>
+      </c>
+      <c r="D49">
+        <v>135</v>
+      </c>
+      <c r="E49">
+        <v>162</v>
+      </c>
+      <c r="F49">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50">
+        <v>132</v>
+      </c>
+      <c r="D50">
+        <v>188</v>
+      </c>
+      <c r="E50">
+        <v>169</v>
+      </c>
+      <c r="F50">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>158</v>
+      </c>
+      <c r="D51">
+        <v>162</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="D1:F1048576"/>
+      <selection activeCell="E1" activeCellId="1" sqref="C1:C1048576 E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13387,11 +14337,959 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D12" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" t="s">
+        <v>378</v>
+      </c>
+      <c r="E17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>370</v>
+      </c>
+      <c r="D23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" t="s">
+        <v>420</v>
+      </c>
+      <c r="F23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D25" t="s">
+        <v>382</v>
+      </c>
+      <c r="E25" t="s">
+        <v>363</v>
+      </c>
+      <c r="F25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" t="s">
+        <v>421</v>
+      </c>
+      <c r="F27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" t="s">
+        <v>404</v>
+      </c>
+      <c r="F28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" t="s">
+        <v>420</v>
+      </c>
+      <c r="F29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E30" t="s">
+        <v>422</v>
+      </c>
+      <c r="F30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" t="s">
+        <v>399</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" t="s">
+        <v>400</v>
+      </c>
+      <c r="E32" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" t="s">
+        <v>381</v>
+      </c>
+      <c r="E33" t="s">
+        <v>421</v>
+      </c>
+      <c r="F33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>379</v>
+      </c>
+      <c r="D35" t="s">
+        <v>370</v>
+      </c>
+      <c r="E35" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" t="s">
+        <v>403</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
+      <c r="D38" t="s">
+        <v>404</v>
+      </c>
+      <c r="E38" t="s">
+        <v>425</v>
+      </c>
+      <c r="F38" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39" t="s">
+        <v>405</v>
+      </c>
+      <c r="E39" t="s">
+        <v>426</v>
+      </c>
+      <c r="F39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>381</v>
+      </c>
+      <c r="D40" t="s">
+        <v>406</v>
+      </c>
+      <c r="F40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" t="s">
+        <v>407</v>
+      </c>
+      <c r="F41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>380</v>
+      </c>
+      <c r="D42" t="s">
+        <v>408</v>
+      </c>
+      <c r="E42" t="s">
+        <v>416</v>
+      </c>
+      <c r="F42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+      <c r="D43" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" t="s">
+        <v>401</v>
+      </c>
+      <c r="F43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" t="s">
+        <v>427</v>
+      </c>
+      <c r="F44" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" t="s">
+        <v>410</v>
+      </c>
+      <c r="E45" t="s">
+        <v>402</v>
+      </c>
+      <c r="F45" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" t="s">
+        <v>408</v>
+      </c>
+      <c r="E46" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>374</v>
+      </c>
+      <c r="D47" t="s">
+        <v>355</v>
+      </c>
+      <c r="E47" t="s">
+        <v>420</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" t="s">
+        <v>411</v>
+      </c>
+      <c r="E48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" t="s">
+        <v>412</v>
+      </c>
+      <c r="E49" t="s">
+        <v>383</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>385</v>
+      </c>
+      <c r="D50" t="s">
+        <v>384</v>
+      </c>
+      <c r="E50" t="s">
+        <v>379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" t="s">
+        <v>398</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
